--- a/US/data/BTS/TRPT/TVT - Rural.xlsx
+++ b/US/data/BTS/TRPT/TVT - Rural.xlsx
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18311</v>
+        <v>18310</v>
       </c>
       <c r="C2" t="n">
         <v>27467</v>
@@ -433,16 +433,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21924</v>
+        <v>21910</v>
       </c>
       <c r="C4" t="n">
-        <v>32493</v>
+        <v>32484</v>
       </c>
       <c r="D4" t="n">
-        <v>28583</v>
+        <v>28581</v>
       </c>
       <c r="E4" t="n">
-        <v>83000</v>
+        <v>82974</v>
       </c>
     </row>
     <row r="5">
@@ -452,16 +452,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56594</v>
+        <v>56579</v>
       </c>
       <c r="C5" t="n">
-        <v>84894</v>
+        <v>84885</v>
       </c>
       <c r="D5" t="n">
-        <v>75140</v>
+        <v>75137</v>
       </c>
       <c r="E5" t="n">
-        <v>216627</v>
+        <v>216601</v>
       </c>
     </row>
     <row r="6">
@@ -482,16 +482,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20910</v>
+        <v>20749</v>
       </c>
       <c r="C7" t="n">
-        <v>31591</v>
+        <v>31479</v>
       </c>
       <c r="D7" t="n">
-        <v>28364</v>
+        <v>28133</v>
       </c>
       <c r="E7" t="n">
-        <v>80866</v>
+        <v>80361</v>
       </c>
     </row>
     <row r="8">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23954</v>
+        <v>23951</v>
       </c>
       <c r="C8" t="n">
-        <v>34650</v>
+        <v>34642</v>
       </c>
       <c r="D8" t="n">
-        <v>31342</v>
+        <v>31304</v>
       </c>
       <c r="E8" t="n">
-        <v>89946</v>
+        <v>89896</v>
       </c>
     </row>
     <row r="9">
@@ -523,13 +523,13 @@
         <v>24693</v>
       </c>
       <c r="C9" t="n">
-        <v>35419</v>
+        <v>35403</v>
       </c>
       <c r="D9" t="n">
-        <v>31563</v>
+        <v>31562</v>
       </c>
       <c r="E9" t="n">
-        <v>91675</v>
+        <v>91658</v>
       </c>
     </row>
     <row r="10">
@@ -539,16 +539,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>69557</v>
+        <v>69393</v>
       </c>
       <c r="C10" t="n">
-        <v>101661</v>
+        <v>101524</v>
       </c>
       <c r="D10" t="n">
-        <v>91269</v>
+        <v>90999</v>
       </c>
       <c r="E10" t="n">
-        <v>262486</v>
+        <v>261915</v>
       </c>
     </row>
     <row r="11">
@@ -569,16 +569,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>126151</v>
+        <v>125972</v>
       </c>
       <c r="C12" t="n">
-        <v>186555</v>
+        <v>186408</v>
       </c>
       <c r="D12" t="n">
-        <v>166408</v>
+        <v>166136</v>
       </c>
       <c r="E12" t="n">
-        <v>479114</v>
+        <v>478516</v>
       </c>
     </row>
     <row r="13">
@@ -621,7 +621,7 @@
         <v>24500</v>
       </c>
       <c r="C15" t="n">
-        <v>35391</v>
+        <v>35390</v>
       </c>
       <c r="D15" t="n">
         <v>31800</v>
@@ -659,13 +659,13 @@
         <v>73884</v>
       </c>
       <c r="C17" t="n">
-        <v>106250</v>
+        <v>106249</v>
       </c>
       <c r="D17" t="n">
         <v>95685</v>
       </c>
       <c r="E17" t="n">
-        <v>275819</v>
+        <v>275818</v>
       </c>
     </row>
     <row r="18">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23665</v>
+        <v>23664</v>
       </c>
       <c r="C19" t="n">
         <v>34718</v>
@@ -727,13 +727,13 @@
         <v>22433</v>
       </c>
       <c r="C21" t="n">
-        <v>31725</v>
+        <v>31726</v>
       </c>
       <c r="D21" t="n">
         <v>27769</v>
       </c>
       <c r="E21" t="n">
-        <v>81927</v>
+        <v>81928</v>
       </c>
     </row>
     <row r="22">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68827</v>
+        <v>68826</v>
       </c>
       <c r="C22" t="n">
         <v>98558</v>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>142711</v>
+        <v>142710</v>
       </c>
       <c r="C24" t="n">
         <v>204808</v>
@@ -782,7 +782,7 @@
         <v>182893</v>
       </c>
       <c r="E24" t="n">
-        <v>530411</v>
+        <v>530410</v>
       </c>
     </row>
     <row r="25">
@@ -803,16 +803,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>268861</v>
+        <v>268682</v>
       </c>
       <c r="C26" t="n">
-        <v>391362</v>
+        <v>391216</v>
       </c>
       <c r="D26" t="n">
-        <v>349301</v>
+        <v>349029</v>
       </c>
       <c r="E26" t="n">
-        <v>1009525</v>
+        <v>1008926</v>
       </c>
     </row>
     <row r="27">
@@ -833,16 +833,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19020</v>
+        <v>19014</v>
       </c>
       <c r="C28" t="n">
-        <v>28053</v>
+        <v>28054</v>
       </c>
       <c r="D28" t="n">
-        <v>24755</v>
+        <v>24749</v>
       </c>
       <c r="E28" t="n">
-        <v>71828</v>
+        <v>71817</v>
       </c>
     </row>
     <row r="29">
@@ -851,10 +851,18 @@
           <t>2022Feb</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>18353</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27461</v>
+      </c>
+      <c r="D29" t="n">
+        <v>24220</v>
+      </c>
+      <c r="E29" t="n">
+        <v>70033</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -862,10 +870,18 @@
           <t>2022Mar</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>22764</v>
+      </c>
+      <c r="C30" t="n">
+        <v>32678</v>
+      </c>
+      <c r="D30" t="n">
+        <v>28661</v>
+      </c>
+      <c r="E30" t="n">
+        <v>84104</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -874,16 +890,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19020</v>
+        <v>60131</v>
       </c>
       <c r="C31" t="n">
-        <v>28053</v>
+        <v>88193</v>
       </c>
       <c r="D31" t="n">
-        <v>24755</v>
+        <v>77630</v>
       </c>
       <c r="E31" t="n">
-        <v>71828</v>
+        <v>225954</v>
       </c>
     </row>
     <row r="32">
@@ -967,16 +983,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19020</v>
+        <v>60131</v>
       </c>
       <c r="C38" t="n">
-        <v>28053</v>
+        <v>88193</v>
       </c>
       <c r="D38" t="n">
-        <v>24755</v>
+        <v>77630</v>
       </c>
       <c r="E38" t="n">
-        <v>71828</v>
+        <v>225954</v>
       </c>
     </row>
     <row r="39">
@@ -1153,16 +1169,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>19020</v>
+        <v>60131</v>
       </c>
       <c r="C52" t="n">
-        <v>28053</v>
+        <v>88193</v>
       </c>
       <c r="D52" t="n">
-        <v>24755</v>
+        <v>77630</v>
       </c>
       <c r="E52" t="n">
-        <v>71828</v>
+        <v>225954</v>
       </c>
     </row>
     <row r="53">

--- a/US/data/BTS/TRPT/TVT - Rural.xlsx
+++ b/US/data/BTS/TRPT/TVT - Rural.xlsx
@@ -871,16 +871,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>22764</v>
+        <v>22735</v>
       </c>
       <c r="C30" t="n">
-        <v>32678</v>
+        <v>32635</v>
       </c>
       <c r="D30" t="n">
-        <v>28661</v>
+        <v>28637</v>
       </c>
       <c r="E30" t="n">
-        <v>84104</v>
+        <v>84007</v>
       </c>
     </row>
     <row r="31">
@@ -890,16 +890,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>60131</v>
+        <v>60102</v>
       </c>
       <c r="C31" t="n">
-        <v>88193</v>
+        <v>88149</v>
       </c>
       <c r="D31" t="n">
-        <v>77630</v>
+        <v>77605</v>
       </c>
       <c r="E31" t="n">
-        <v>225954</v>
+        <v>225857</v>
       </c>
     </row>
     <row r="32">
@@ -919,10 +919,18 @@
           <t>2022Apr</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>20902</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31176</v>
+      </c>
+      <c r="D33" t="n">
+        <v>27967</v>
+      </c>
+      <c r="E33" t="n">
+        <v>80045</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -953,16 +961,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>20902</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>31176</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>27967</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>80045</v>
       </c>
     </row>
     <row r="37">
@@ -983,16 +991,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>60131</v>
+        <v>81005</v>
       </c>
       <c r="C38" t="n">
-        <v>88193</v>
+        <v>119325</v>
       </c>
       <c r="D38" t="n">
-        <v>77630</v>
+        <v>105572</v>
       </c>
       <c r="E38" t="n">
-        <v>225954</v>
+        <v>305902</v>
       </c>
     </row>
     <row r="39">
@@ -1169,16 +1177,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>60131</v>
+        <v>81005</v>
       </c>
       <c r="C52" t="n">
-        <v>88193</v>
+        <v>119325</v>
       </c>
       <c r="D52" t="n">
-        <v>77630</v>
+        <v>105572</v>
       </c>
       <c r="E52" t="n">
-        <v>225954</v>
+        <v>305902</v>
       </c>
     </row>
     <row r="53">
